--- a/src/main/java/reports/b.xlsx
+++ b/src/main/java/reports/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loyd_\IdeaProjects\petstac\src\main\java\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8561EAE5-A57F-460D-9352-25AD72C38A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9766F8-1348-43A1-9A14-85ED93CC046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60855" yWindow="9630" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="8240" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copied Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>TC02</t>
   </si>
@@ -87,16 +87,34 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,14 +476,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
@@ -556,6 +597,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/reports/b.xlsx
+++ b/src/main/java/reports/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loyd_\IdeaProjects\petstac\src\main\java\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9766F8-1348-43A1-9A14-85ED93CC046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5AE839-C35B-4A70-804A-7F15748714F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="8240" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="6130" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copied Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>TC02</t>
   </si>
@@ -89,16 +89,7 @@
     <t>d</t>
   </si>
   <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -476,38 +467,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -532,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -540,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -551,7 +545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -568,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -585,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>17</v>
       </c>
